--- a/output/fit_clients/fit_round_216.xlsx
+++ b/output/fit_clients/fit_round_216.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2045996359.950152</v>
+        <v>2169044201.780701</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1071721578943347</v>
+        <v>0.08992761911727849</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03496836220393875</v>
+        <v>0.02845987265442635</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1022998181.825377</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2245084738.904724</v>
+        <v>2600700171.843903</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1625406384399654</v>
+        <v>0.173163747783434</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03866978308033701</v>
+        <v>0.04987486675003229</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1122542447.450902</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4029995361.714114</v>
+        <v>4306117778.873045</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1205657566428328</v>
+        <v>0.1542866973956677</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03580131150161848</v>
+        <v>0.036426435007671</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>78</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2014997697.145718</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3144153584.71542</v>
+        <v>3557063428.482847</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1022787018950072</v>
+        <v>0.07134789871179327</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04773979860691794</v>
+        <v>0.05079351752637253</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>80</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1572076852.679331</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2089220385.510899</v>
+        <v>2011630112.024609</v>
       </c>
       <c r="F6" t="n">
-        <v>0.100343805920179</v>
+        <v>0.1040293406213178</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03605665735064386</v>
+        <v>0.05078886085394793</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1044610212.678605</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1916968789.848144</v>
+        <v>2901564399.766108</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07203487759800256</v>
+        <v>0.0983937342153595</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03030515895718921</v>
+        <v>0.04007734927186151</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>66</v>
-      </c>
-      <c r="J7" t="n">
-        <v>958484464.1071852</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3237171678.202424</v>
+        <v>3197446651.642574</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1458060146866796</v>
+        <v>0.1786161246078642</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02589922207535356</v>
+        <v>0.02923873044471668</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>69</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1618585920.84031</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1507928511.322874</v>
+        <v>1472285895.418523</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1226619779597414</v>
+        <v>0.1591036998233843</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03171760868215254</v>
+        <v>0.02259794000415844</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>753964350.5177507</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4460264000.629414</v>
+        <v>5640112268.322756</v>
       </c>
       <c r="F10" t="n">
-        <v>0.162843021610547</v>
+        <v>0.1629658738037579</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03554372467473552</v>
+        <v>0.05028962585516904</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>91</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2230132057.824193</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3909949096.716699</v>
+        <v>2588657227.277318</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1172456639452203</v>
+        <v>0.121140000030592</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03661750983034776</v>
+        <v>0.04362644202809617</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>89</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1954974554.725463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2619579572.137623</v>
+        <v>3259436752.193447</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1634303326289308</v>
+        <v>0.1869084385231358</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05080371772187699</v>
+        <v>0.05116635882377617</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>74</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1309789769.245635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3996181485.500563</v>
+        <v>3357855259.103825</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08690158844522283</v>
+        <v>0.07862461641548861</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02385635856142703</v>
+        <v>0.02673581472712028</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>72</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1998090797.862127</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3320292611.187509</v>
+        <v>2735218152.382679</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1622445251802179</v>
+        <v>0.1793222812877437</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04019466589494761</v>
+        <v>0.04134584019331089</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>70</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1660146316.827693</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1831392764.777831</v>
+        <v>1503824177.966245</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06846851019081211</v>
+        <v>0.107750199611965</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04514258476555388</v>
+        <v>0.03560847795848866</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>915696543.009005</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2841417409.789238</v>
+        <v>2443691861.811671</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1110928401742812</v>
+        <v>0.072838563525205</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03900693195568247</v>
+        <v>0.0397430308497625</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>35</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1420708705.186949</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4518928476.764556</v>
+        <v>4796294996.510921</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1635465826748493</v>
+        <v>0.150962166726358</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05230427693504456</v>
+        <v>0.03674289915558535</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>63</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2259464247.33742</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3007954321.656835</v>
+        <v>3225938971.892304</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1845471174183196</v>
+        <v>0.1721072976960707</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02912349246065701</v>
+        <v>0.03041636940234823</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>71</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1503977190.499862</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>975125252.9854044</v>
+        <v>831807933.8969405</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1597364446459947</v>
+        <v>0.1723361568974029</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01788210253330405</v>
+        <v>0.02611072348565894</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>487562649.6462114</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1978910849.484463</v>
+        <v>2298998410.312138</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1439370570202556</v>
+        <v>0.1509915385066993</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02880002566652434</v>
+        <v>0.0197387722542652</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>989455453.322789</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1933240777.313651</v>
+        <v>2616937421.791218</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07041894707504188</v>
+        <v>0.07933277116517262</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03303315792517616</v>
+        <v>0.04080275029923775</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>966620430.9777092</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3772776175.252128</v>
+        <v>3365202158.621074</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1281033070515048</v>
+        <v>0.1183475474064055</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05375843249714848</v>
+        <v>0.03683039287192909</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>59</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1886388102.860353</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1347768088.719392</v>
+        <v>1241275514.164914</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1243084186979837</v>
+        <v>0.1404961089140499</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03567164503435424</v>
+        <v>0.03649289364031433</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>673884055.9471098</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3783852017.494258</v>
+        <v>2710590534.35673</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1300366140253238</v>
+        <v>0.1426302573583009</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03234674942311157</v>
+        <v>0.03210233934465868</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>64</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1891925991.236158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1236244584.630248</v>
+        <v>933760693.5180299</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09521875839536117</v>
+        <v>0.07403874186523926</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0298405268255788</v>
+        <v>0.02806537816274713</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>618122301.9476362</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1153626756.762166</v>
+        <v>925166024.0520058</v>
       </c>
       <c r="F26" t="n">
-        <v>0.121138571650453</v>
+        <v>0.0866530164899091</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03481746669089102</v>
+        <v>0.02913186398934625</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>576813388.0196164</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3172186774.00355</v>
+        <v>4126509342.055596</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1581240161458985</v>
+        <v>0.1349027415717607</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01963844144840164</v>
+        <v>0.02231967590637434</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1586093438.255852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2568461887.886326</v>
+        <v>3144825277.12157</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1055150289953398</v>
+        <v>0.1089456690940035</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03537881626696903</v>
+        <v>0.04858061562622507</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>71</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1284230917.717072</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4431645002.19177</v>
+        <v>4347200909.153057</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09275651003340837</v>
+        <v>0.1007722352767042</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03446718240539358</v>
+        <v>0.04575431244468349</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>96</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2215822488.068373</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2279330018.633924</v>
+        <v>2163702651.243299</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08460688642057707</v>
+        <v>0.1122354627122764</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02470260007651492</v>
+        <v>0.03926905469420018</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1139665078.574755</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1074924171.353558</v>
+        <v>1010594642.909271</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06783839126195464</v>
+        <v>0.09883594791088704</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04930693543837587</v>
+        <v>0.04603646474062403</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>537462066.5683523</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1475619389.053993</v>
+        <v>1258541664.196101</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07736580166233772</v>
+        <v>0.08432744400553267</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02549680883124724</v>
+        <v>0.03330336431183127</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>737809757.8103611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2064104511.820333</v>
+        <v>2608244832.705286</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1301625931616878</v>
+        <v>0.1685498891032121</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05251845687054436</v>
+        <v>0.05025506758223636</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>64</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1032052331.227293</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1514503242.533127</v>
+        <v>1556811405.068963</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1038542537067071</v>
+        <v>0.07918696043201137</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02735013221024095</v>
+        <v>0.02269552153273705</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>757251574.70748</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1249464877.245049</v>
+        <v>925057375.6698476</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07906982699712897</v>
+        <v>0.09469462016811678</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03038304830317324</v>
+        <v>0.03311488627421438</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>624732402.49333</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2658393421.093552</v>
+        <v>2135305247.290098</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1122465923738061</v>
+        <v>0.1235274007478882</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02003306712639032</v>
+        <v>0.02340003527481183</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>55</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1329196719.82843</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1776993500.038849</v>
+        <v>2156093806.345808</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09258380161678097</v>
+        <v>0.08554404406223196</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03503188960444542</v>
+        <v>0.04160846231575438</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>56</v>
-      </c>
-      <c r="J37" t="n">
-        <v>888496746.6170317</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1712415869.183881</v>
+        <v>1401815736.674322</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1046948305986814</v>
+        <v>0.07438228868875055</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03415019551122246</v>
+        <v>0.03589451595744157</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>856207953.8264812</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1853995131.614766</v>
+        <v>1790628175.611071</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1373466993699351</v>
+        <v>0.1351718681948727</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02666252517613739</v>
+        <v>0.03309686031549555</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>926997582.4970219</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1634447325.670836</v>
+        <v>1616504850.316014</v>
       </c>
       <c r="F40" t="n">
-        <v>0.113620311043188</v>
+        <v>0.1261843394791474</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03830112370864193</v>
+        <v>0.04118789635002507</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>817223595.3597946</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2275921020.837889</v>
+        <v>2550259466.580467</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1650417820791354</v>
+        <v>0.1555377402583593</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0455153476732451</v>
+        <v>0.04553888067585058</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1137960557.584891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3091574697.160987</v>
+        <v>2779485819.913566</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07792228476728473</v>
+        <v>0.1085724793332967</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04187626610485839</v>
+        <v>0.0359423088669355</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>77</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1545787315.29914</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2918639053.846587</v>
+        <v>2752253896.513295</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1825183892242678</v>
+        <v>0.1769795129087406</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02413773185517248</v>
+        <v>0.01839456956264481</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>74</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1459319533.472</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1778489426.027586</v>
+        <v>1660208218.105981</v>
       </c>
       <c r="F44" t="n">
-        <v>0.097962432695098</v>
+        <v>0.08304393555165604</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02506942380948234</v>
+        <v>0.02759432979205161</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>889244775.1366043</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1812255772.399229</v>
+        <v>1552978094.039438</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1247113177935562</v>
+        <v>0.147204992911673</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03977336831659471</v>
+        <v>0.04727239767452118</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>906127858.1118292</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5565054370.183741</v>
+        <v>5680156007.871652</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1219036731094459</v>
+        <v>0.1647446512215424</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05015915721889914</v>
+        <v>0.04298397748072302</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>77</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2782527244.202632</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3360405030.000503</v>
+        <v>4227283921.963077</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1473907193842242</v>
+        <v>0.1287084128323412</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05708144356063575</v>
+        <v>0.04825198119513453</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>58</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1680202477.885329</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3384033407.560297</v>
+        <v>3432299751.608585</v>
       </c>
       <c r="F48" t="n">
-        <v>0.067179713159427</v>
+        <v>0.07411268472233278</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02369066556826111</v>
+        <v>0.02665070598058316</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1692016773.959928</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1228207900.131387</v>
+        <v>1597798980.524659</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1288486648007642</v>
+        <v>0.1762901508130079</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03702818675106111</v>
+        <v>0.03427254881912701</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>614104024.3307912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2825023541.584233</v>
+        <v>3599123164.162511</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1483471933841716</v>
+        <v>0.13102087087139</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04458135026618637</v>
+        <v>0.04038159166031235</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>73</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1412511843.047573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1048717291.163368</v>
+        <v>1511281230.617915</v>
       </c>
       <c r="F51" t="n">
-        <v>0.127786949784902</v>
+        <v>0.1294998947115096</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03849244677220498</v>
+        <v>0.05011071086795273</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>524358721.6348438</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3328841721.609713</v>
+        <v>3306771701.528327</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1099225060653541</v>
+        <v>0.1056989498925422</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03735271792386017</v>
+        <v>0.04806052847676409</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>89</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1664420956.769836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2488712937.039808</v>
+        <v>3121289453.204672</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1998442049119907</v>
+        <v>0.1282180897766871</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02615852944075372</v>
+        <v>0.03335504621285114</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>62</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1244356536.242135</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4721888653.534311</v>
+        <v>3565415938.179501</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1333235143978094</v>
+        <v>0.1086180994256579</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03619934193641054</v>
+        <v>0.03614356416865336</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>71</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2360944447.520669</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4021500238.532476</v>
+        <v>3129422095.996108</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1422510218713754</v>
+        <v>0.1508565311276061</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03061053785495901</v>
+        <v>0.02527197062726956</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2010750095.097558</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1165600939.023093</v>
+        <v>1667435372.433499</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1455859949856359</v>
+        <v>0.13312326706072</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04921698503680538</v>
+        <v>0.04221864229618356</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>582800561.3184047</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3378891041.460711</v>
+        <v>4054310495.154367</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1676627141080401</v>
+        <v>0.17704989702882</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02212697244989669</v>
+        <v>0.0177435860227052</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>68</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1689445556.930192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1550601827.532538</v>
+        <v>1413223473.166592</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1595466948281026</v>
+        <v>0.1795480926655494</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02723275904934531</v>
+        <v>0.0365722872236959</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>775300940.2638882</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3928885603.039456</v>
+        <v>4603945532.073259</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09847649852626703</v>
+        <v>0.08391472784643346</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04693404966161511</v>
+        <v>0.04076117169925914</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>59</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1964442780.879043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2943671185.446172</v>
+        <v>3563085739.267814</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1336701408381717</v>
+        <v>0.1612063689214805</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02381919536847591</v>
+        <v>0.02999047201626632</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1471835657.148046</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3103912371.360945</v>
+        <v>2410570889.872444</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1688479668024166</v>
+        <v>0.160156974955333</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02560682063642217</v>
+        <v>0.03071868792870338</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>74</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1551956156.335244</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2118107837.898921</v>
+        <v>1511956090.861386</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1748034331175385</v>
+        <v>0.1563445458042673</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03357310652479775</v>
+        <v>0.04256363401094099</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1059053994.723748</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3817563536.716858</v>
+        <v>3597039381.062123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07585750002122274</v>
+        <v>0.09795675319370625</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04598034844529535</v>
+        <v>0.04621616893175275</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>63</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1908781838.861716</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5067166362.549119</v>
+        <v>3479823169.790131</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1552610215780264</v>
+        <v>0.1536734459364292</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02683601429502243</v>
+        <v>0.02892618232247461</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>67</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2533583292.178935</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3903599254.655792</v>
+        <v>3809561727.632549</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1345685860486475</v>
+        <v>0.1082091122125735</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02498034165282772</v>
+        <v>0.02019511464803651</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>77</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1951799651.648278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5228310541.74501</v>
+        <v>3834344217.775508</v>
       </c>
       <c r="F66" t="n">
-        <v>0.130601783069181</v>
+        <v>0.1151596160707175</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03915179623119861</v>
+        <v>0.0485755099012515</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>63</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2614155310.235624</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2613739103.377019</v>
+        <v>3117445059.557338</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07438021706443446</v>
+        <v>0.09549531411665373</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03467446919278643</v>
+        <v>0.03317084644236836</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>71</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1306869602.66061</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5387263641.850319</v>
+        <v>4082846326.500793</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1050026665027682</v>
+        <v>0.1569962830554231</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04691750654871853</v>
+        <v>0.03612112320688316</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>71</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2693631900.773538</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2356535865.241254</v>
+        <v>1533603494.192101</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1717268892557201</v>
+        <v>0.1140425798124202</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05549078981154422</v>
+        <v>0.03706429038259739</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1178267983.659291</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3200475946.315659</v>
+        <v>2409759782.562627</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09996894153210954</v>
+        <v>0.08279441156962587</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04297484875964987</v>
+        <v>0.03357561460624671</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>61</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1600237963.188411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5522363646.177226</v>
+        <v>4164354428.239821</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1433690207249691</v>
+        <v>0.1142767811418082</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03402275562429852</v>
+        <v>0.02728720197403055</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>78</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2761181967.75209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2191494553.307667</v>
+        <v>2072453496.184349</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09147348271672352</v>
+        <v>0.07193922094985267</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03583964947835237</v>
+        <v>0.03714756497223475</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1095747192.065913</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3269122934.852501</v>
+        <v>2293038907.664467</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07953647897357685</v>
+        <v>0.09125135038598621</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04241197715362369</v>
+        <v>0.03654768726216932</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>82</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1634561438.75648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2515342799.120617</v>
+        <v>2738176056.03586</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1384027517799148</v>
+        <v>0.1308381455635476</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02750526594545968</v>
+        <v>0.02345861880856724</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>73</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1257671506.839797</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2055297206.660816</v>
+        <v>1763103052.115941</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1104049349105307</v>
+        <v>0.1300722172119555</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0252290719376061</v>
+        <v>0.03763012472547203</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1027648562.28479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4793024637.529369</v>
+        <v>3937758211.722898</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1195856509445603</v>
+        <v>0.08856840328559411</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03380861318128874</v>
+        <v>0.02880220912978246</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2396512336.687848</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2282606665.99836</v>
+        <v>2140827721.426975</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1583111894528624</v>
+        <v>0.1359396726217723</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02888224497843733</v>
+        <v>0.03062565735117065</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1141303436.233634</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3315028962.599399</v>
+        <v>3626697538.245174</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08945010384098973</v>
+        <v>0.1328973194984554</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04610991684540246</v>
+        <v>0.03452062728525516</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>75</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1657514496.043138</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1354504887.831299</v>
+        <v>1600563612.388389</v>
       </c>
       <c r="F79" t="n">
-        <v>0.11671027113308</v>
+        <v>0.1684081391526623</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02895186794105663</v>
+        <v>0.02476416809638599</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>677252452.6318982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3882371787.023674</v>
+        <v>4955644919.66619</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09904784375255296</v>
+        <v>0.07956597271145825</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03137469300652829</v>
+        <v>0.03580998308023644</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>45</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1941185887.105847</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3442260352.736591</v>
+        <v>4168487100.378064</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1034927337401671</v>
+        <v>0.1177059936588789</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02580828156178706</v>
+        <v>0.02234273102205933</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>49</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1721130118.852541</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5342008089.659537</v>
+        <v>4031055950.486488</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1700313275485724</v>
+        <v>0.1687271302478814</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02168713366343285</v>
+        <v>0.02923416346790758</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2671004009.682875</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1965605450.262108</v>
+        <v>2233929581.988172</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1445817446693521</v>
+        <v>0.1471482930921938</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0364229005886458</v>
+        <v>0.03210236229759891</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>982802706.1463972</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1886273876.766156</v>
+        <v>2534227976.067721</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1163437257837095</v>
+        <v>0.1017457467540651</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04422702285868719</v>
+        <v>0.04221129376067671</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>943136960.0066384</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3120784406.695892</v>
+        <v>3471825770.722443</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1851441757181709</v>
+        <v>0.1220570583887812</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04947537529934581</v>
+        <v>0.04976752386840363</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>81</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1560392276.818619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2782919649.635946</v>
+        <v>1946265357.73085</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1111857807990675</v>
+        <v>0.1092713851790782</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02509444788125299</v>
+        <v>0.01731572208170685</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1391459961.276365</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1445379533.573533</v>
+        <v>1202081542.237554</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1413257198545233</v>
+        <v>0.1190684555938156</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0413186593347663</v>
+        <v>0.04196618497816217</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>722689885.2384154</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2438260554.303104</v>
+        <v>3340402930.945992</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1760814128766205</v>
+        <v>0.1551586679978587</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02569553402959258</v>
+        <v>0.03043230143692147</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>85</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1219130252.075467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2907562761.804479</v>
+        <v>3163924245.335964</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09801598775175038</v>
+        <v>0.1015304002855375</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0400574689268265</v>
+        <v>0.03491495167523135</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>75</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1453781425.773153</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1910804733.19323</v>
+        <v>2015171029.281592</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1245253752625393</v>
+        <v>0.1034217016367262</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03622439762079506</v>
+        <v>0.0546028683971374</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>955402420.5316356</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1479535440.60232</v>
+        <v>1579328628.389699</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1473713531866965</v>
+        <v>0.1431726557379264</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04365753026676503</v>
+        <v>0.05001602985238086</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>739767761.9332876</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2192682849.201621</v>
+        <v>2320188889.329363</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09029481016359855</v>
+        <v>0.08874322290376481</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04594463857302794</v>
+        <v>0.04042435885758862</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>55</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1096341385.310857</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4867803687.92733</v>
+        <v>3678922262.635496</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1197402712849404</v>
+        <v>0.1078929026466158</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0334965309087062</v>
+        <v>0.05060637302203603</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>66</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2433901788.465551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1749050309.767735</v>
+        <v>2044036906.543275</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1030109669428951</v>
+        <v>0.1483779615495408</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04131189406963443</v>
+        <v>0.03497441084266945</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>874525120.5263987</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2483515644.024263</v>
+        <v>2036025420.448588</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0974304519669799</v>
+        <v>0.1061627578232617</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03706137958861747</v>
+        <v>0.03680082012530504</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>52</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1241757859.281832</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2206884754.113223</v>
+        <v>2051501840.095643</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09504404098934305</v>
+        <v>0.1046955876441725</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03336553611411676</v>
+        <v>0.03996709865573003</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1103442341.926638</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4690708975.308064</v>
+        <v>4265100113.418972</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1136129511741798</v>
+        <v>0.1108775970626625</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02819572664924489</v>
+        <v>0.02615004316954415</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>71</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2345354599.56496</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2943594722.791371</v>
+        <v>2459300756.364099</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1290725781900666</v>
+        <v>0.1119789195062587</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02996723112419759</v>
+        <v>0.02492800132704702</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>57</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1471797342.272291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2275638054.095129</v>
+        <v>2914442917.069751</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09913682746214839</v>
+        <v>0.09287989417398503</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02760455545144904</v>
+        <v>0.03315792264595969</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>68</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1137818960.507293</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4163162327.665906</v>
+        <v>4430266900.099346</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1768166462401492</v>
+        <v>0.1680514648318993</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01811491449476408</v>
+        <v>0.01985360219879214</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>66</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2081581247.522505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3386981690.453179</v>
+        <v>3561594492.791306</v>
       </c>
       <c r="F101" t="n">
-        <v>0.174393635886064</v>
+        <v>0.174877882183075</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05695685135252487</v>
+        <v>0.05141188531417539</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>88</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1693490985.451555</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_216.xlsx
+++ b/output/fit_clients/fit_round_216.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2169044201.780701</v>
+        <v>1895691228.889958</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08992761911727849</v>
+        <v>0.07652721661029012</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02845987265442635</v>
+        <v>0.04153512622613149</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2600700171.843903</v>
+        <v>1804095239.10275</v>
       </c>
       <c r="F3" t="n">
-        <v>0.173163747783434</v>
+        <v>0.1325996707417238</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04987486675003229</v>
+        <v>0.03397797049042599</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4306117778.873045</v>
+        <v>4664627694.775711</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1542866973956677</v>
+        <v>0.1380632097414</v>
       </c>
       <c r="G4" t="n">
-        <v>0.036426435007671</v>
+        <v>0.03656156803404653</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3557063428.482847</v>
+        <v>3439154410.336553</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07134789871179327</v>
+        <v>0.06880575632377317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05079351752637253</v>
+        <v>0.04787537411726482</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2011630112.024609</v>
+        <v>2360067635.870702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1040293406213178</v>
+        <v>0.1132659152076347</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05078886085394793</v>
+        <v>0.05214162249918714</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2901564399.766108</v>
+        <v>3006361927.904922</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0983937342153595</v>
+        <v>0.09739492269434688</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04007734927186151</v>
+        <v>0.03383552673427839</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3197446651.642574</v>
+        <v>3249151146.985661</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1786161246078642</v>
+        <v>0.1797193955417296</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02923873044471668</v>
+        <v>0.0306264598783752</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1472285895.418523</v>
+        <v>1669891347.013545</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1591036998233843</v>
+        <v>0.1775524159973668</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02259794000415844</v>
+        <v>0.03305872332080147</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5640112268.322756</v>
+        <v>5604936771.243336</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1629658738037579</v>
+        <v>0.1403017255162899</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05028962585516904</v>
+        <v>0.03838252107161823</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2588657227.277318</v>
+        <v>3155569993.808048</v>
       </c>
       <c r="F11" t="n">
-        <v>0.121140000030592</v>
+        <v>0.1534817534851093</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04362644202809617</v>
+        <v>0.04380206018288806</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3259436752.193447</v>
+        <v>2535923286.372184</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1869084385231358</v>
+        <v>0.1232607495389718</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05116635882377617</v>
+        <v>0.03764230850912758</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3357855259.103825</v>
+        <v>4692750295.696036</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07862461641548861</v>
+        <v>0.09297537682824038</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02673581472712028</v>
+        <v>0.02835852653712458</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2735218152.382679</v>
+        <v>3140439970.241041</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1793222812877437</v>
+        <v>0.1171308502700629</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04134584019331089</v>
+        <v>0.04266190069176731</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1503824177.966245</v>
+        <v>1723049395.864243</v>
       </c>
       <c r="F15" t="n">
-        <v>0.107750199611965</v>
+        <v>0.09204236719620344</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03560847795848866</v>
+        <v>0.03977631246754392</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2443691861.811671</v>
+        <v>2789398145.650187</v>
       </c>
       <c r="F16" t="n">
-        <v>0.072838563525205</v>
+        <v>0.09592450579184614</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0397430308497625</v>
+        <v>0.04027182669965326</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4796294996.510921</v>
+        <v>3557745947.192261</v>
       </c>
       <c r="F17" t="n">
-        <v>0.150962166726358</v>
+        <v>0.1432944988711164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03674289915558535</v>
+        <v>0.04967756170819057</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3225938971.892304</v>
+        <v>2910697151.133574</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1721072976960707</v>
+        <v>0.1210427605658184</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03041636940234823</v>
+        <v>0.02687465627770334</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>831807933.8969405</v>
+        <v>1352712769.781637</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1723361568974029</v>
+        <v>0.1620975461060196</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02611072348565894</v>
+        <v>0.01855118473561667</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2298998410.312138</v>
+        <v>2345620205.703125</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1509915385066993</v>
+        <v>0.1559440133916015</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0197387722542652</v>
+        <v>0.01945619635848575</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2616937421.791218</v>
+        <v>2061296283.567536</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07933277116517262</v>
+        <v>0.06365958236939229</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04080275029923775</v>
+        <v>0.03137885738530186</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3365202158.621074</v>
+        <v>3301244778.438582</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1183475474064055</v>
+        <v>0.1243779653960279</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03683039287192909</v>
+        <v>0.04958015392641731</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1241275514.164914</v>
+        <v>957753842.6560909</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1404961089140499</v>
+        <v>0.124741558297518</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03649289364031433</v>
+        <v>0.04342028422457909</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2710590534.35673</v>
+        <v>2730583045.29722</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1426302573583009</v>
+        <v>0.146071306843082</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03210233934465868</v>
+        <v>0.03695553291351839</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>933760693.5180299</v>
+        <v>1219946042.302335</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07403874186523926</v>
+        <v>0.09781253134636088</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02806537816274713</v>
+        <v>0.0215567021433446</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>925166024.0520058</v>
+        <v>1181001723.948598</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0866530164899091</v>
+        <v>0.1232345586184231</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02913186398934625</v>
+        <v>0.02948789779666913</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4126509342.055596</v>
+        <v>4576942371.988238</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1349027415717607</v>
+        <v>0.1298479035854077</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02231967590637434</v>
+        <v>0.02633526600132607</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3144825277.12157</v>
+        <v>3739229755.624848</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1089456690940035</v>
+        <v>0.1396064604097372</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04858061562622507</v>
+        <v>0.03071290378814653</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4347200909.153057</v>
+        <v>4314190408.425566</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1007722352767042</v>
+        <v>0.1310511926713715</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04575431244468349</v>
+        <v>0.0352063837842806</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2163702651.243299</v>
+        <v>2310536027.385057</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1122354627122764</v>
+        <v>0.1164827238566553</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03926905469420018</v>
+        <v>0.03380097414479789</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1010594642.909271</v>
+        <v>1066357093.820069</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09883594791088704</v>
+        <v>0.09925115905235536</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04603646474062403</v>
+        <v>0.04917318138088748</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1258541664.196101</v>
+        <v>1227270563.420852</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08432744400553267</v>
+        <v>0.0735244586830034</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03330336431183127</v>
+        <v>0.02741766727818577</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2608244832.705286</v>
+        <v>2143811672.213827</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1685498891032121</v>
+        <v>0.1504206772384922</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05025506758223636</v>
+        <v>0.04103687190962773</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1556811405.068963</v>
+        <v>1133365097.868805</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07918696043201137</v>
+        <v>0.08393300507784085</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02269552153273705</v>
+        <v>0.01982372045716841</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>925057375.6698476</v>
+        <v>1060067913.533753</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09469462016811678</v>
+        <v>0.09822322018128563</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03311488627421438</v>
+        <v>0.03872432750123089</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2135305247.290098</v>
+        <v>3190967827.113163</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1235274007478882</v>
+        <v>0.134121070243472</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02340003527481183</v>
+        <v>0.02019961633650254</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2156093806.345808</v>
+        <v>2722660276.048611</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08554404406223196</v>
+        <v>0.0926913961854029</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04160846231575438</v>
+        <v>0.03353210299529707</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1401815736.674322</v>
+        <v>1386893413.866487</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07438228868875055</v>
+        <v>0.1116924085474472</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03589451595744157</v>
+        <v>0.03387256127778347</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1790628175.611071</v>
+        <v>2135750724.05074</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1351718681948727</v>
+        <v>0.1220494984766375</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03309686031549555</v>
+        <v>0.02425903861581853</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1616504850.316014</v>
+        <v>1135848180.697454</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1261843394791474</v>
+        <v>0.1225751292401976</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04118789635002507</v>
+        <v>0.05286177007295954</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2550259466.580467</v>
+        <v>2105256656.022146</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1555377402583593</v>
+        <v>0.1123426155818873</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04553888067585058</v>
+        <v>0.0350816957127243</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2779485819.913566</v>
+        <v>4199767007.215699</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1085724793332967</v>
+        <v>0.08735772977604454</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0359423088669355</v>
+        <v>0.0454673770108251</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2752253896.513295</v>
+        <v>2407060308.311469</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1769795129087406</v>
+        <v>0.1374082956701339</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01839456956264481</v>
+        <v>0.02594039683688208</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1660208218.105981</v>
+        <v>1712492161.61049</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08304393555165604</v>
+        <v>0.07147538171469098</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02759432979205161</v>
+        <v>0.02389999304646345</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1552978094.039438</v>
+        <v>2509715363.078233</v>
       </c>
       <c r="F45" t="n">
-        <v>0.147204992911673</v>
+        <v>0.153296109744104</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04727239767452118</v>
+        <v>0.0420376159514351</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5680156007.871652</v>
+        <v>5417312109.675073</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1647446512215424</v>
+        <v>0.131733644493008</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04298397748072302</v>
+        <v>0.05400923596205406</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4227283921.963077</v>
+        <v>3278308976.390836</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1287084128323412</v>
+        <v>0.1807024211955598</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04825198119513453</v>
+        <v>0.05732839443441465</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3432299751.608585</v>
+        <v>3870139793.48968</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07411268472233278</v>
+        <v>0.07514501473524356</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02665070598058316</v>
+        <v>0.03506271506692882</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1597798980.524659</v>
+        <v>1563275783.609924</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1762901508130079</v>
+        <v>0.1242312159227719</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03427254881912701</v>
+        <v>0.03747363796254814</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3599123164.162511</v>
+        <v>3555178967.606349</v>
       </c>
       <c r="F50" t="n">
-        <v>0.13102087087139</v>
+        <v>0.1453483878017542</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04038159166031235</v>
+        <v>0.03802870628039403</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1511281230.617915</v>
+        <v>1528082490.226482</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1294998947115096</v>
+        <v>0.1825718709508736</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05011071086795273</v>
+        <v>0.04225772581249673</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3306771701.528327</v>
+        <v>4138771660.094058</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1056989498925422</v>
+        <v>0.103429513632847</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04806052847676409</v>
+        <v>0.05400242268772228</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3121289453.204672</v>
+        <v>2693329078.396537</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1282180897766871</v>
+        <v>0.1751995550922298</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03335504621285114</v>
+        <v>0.02553450114554875</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3565415938.179501</v>
+        <v>3238951720.213208</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1086180994256579</v>
+        <v>0.1239572097914825</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03614356416865336</v>
+        <v>0.04477202986444691</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3129422095.996108</v>
+        <v>4737593460.693437</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1508565311276061</v>
+        <v>0.2159215028127513</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02527197062726956</v>
+        <v>0.02053733132079103</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1667435372.433499</v>
+        <v>1865911363.083357</v>
       </c>
       <c r="F56" t="n">
-        <v>0.13312326706072</v>
+        <v>0.1352575403489008</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04221864229618356</v>
+        <v>0.04828578146217222</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4054310495.154367</v>
+        <v>4056569964.928569</v>
       </c>
       <c r="F57" t="n">
-        <v>0.17704989702882</v>
+        <v>0.1539448518672956</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0177435860227052</v>
+        <v>0.01833654041957882</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1413223473.166592</v>
+        <v>1382972636.453739</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1795480926655494</v>
+        <v>0.1697555693838061</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0365722872236959</v>
+        <v>0.02612164427117389</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4603945532.073259</v>
+        <v>4193249147.149898</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08391472784643346</v>
+        <v>0.1106251213224253</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04076117169925914</v>
+        <v>0.04625315114890058</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3563085739.267814</v>
+        <v>2591422714.79639</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1612063689214805</v>
+        <v>0.1435598721328888</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02999047201626632</v>
+        <v>0.02926455160213372</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2410570889.872444</v>
+        <v>2453166256.668028</v>
       </c>
       <c r="F61" t="n">
-        <v>0.160156974955333</v>
+        <v>0.1745187345283828</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03071868792870338</v>
+        <v>0.02154435056271077</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1511956090.861386</v>
+        <v>1967951429.500978</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1563445458042673</v>
+        <v>0.1814309324898571</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04256363401094099</v>
+        <v>0.04598060070649006</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3597039381.062123</v>
+        <v>3514543363.376609</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09795675319370625</v>
+        <v>0.07798795972329849</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04621616893175275</v>
+        <v>0.03773995989086412</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3479823169.790131</v>
+        <v>3641986681.969648</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1536734459364292</v>
+        <v>0.1697643054153494</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02892618232247461</v>
+        <v>0.02904078741461638</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3809561727.632549</v>
+        <v>5307656668.511097</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1082091122125735</v>
+        <v>0.1221079015577912</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02019511464803651</v>
+        <v>0.02885822104216614</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3834344217.775508</v>
+        <v>5649103632.614021</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1151596160707175</v>
+        <v>0.1426659524897932</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0485755099012515</v>
+        <v>0.03829752963168662</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3117445059.557338</v>
+        <v>2876281827.152304</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09549531411665373</v>
+        <v>0.09116398597916295</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03317084644236836</v>
+        <v>0.03860709348257317</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4082846326.500793</v>
+        <v>3743479297.439136</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1569962830554231</v>
+        <v>0.1021238787699947</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03612112320688316</v>
+        <v>0.04202058279551116</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1533603494.192101</v>
+        <v>1617902466.977615</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1140425798124202</v>
+        <v>0.1685948424179181</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03706429038259739</v>
+        <v>0.05159527536308455</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2409759782.562627</v>
+        <v>3291064952.277444</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08279441156962587</v>
+        <v>0.06402243263985298</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03357561460624671</v>
+        <v>0.04052263699319943</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4164354428.239821</v>
+        <v>3907221018.713739</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1142767811418082</v>
+        <v>0.1165269973808136</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02728720197403055</v>
+        <v>0.02891254969750457</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2072453496.184349</v>
+        <v>1714937973.602272</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07193922094985267</v>
+        <v>0.07613033003453974</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03714756497223475</v>
+        <v>0.0494740761239508</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2293038907.664467</v>
+        <v>3169231816.511411</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09125135038598621</v>
+        <v>0.09982985059070987</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03654768726216932</v>
+        <v>0.0464981478950689</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2738176056.03586</v>
+        <v>2644972904.85825</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1308381455635476</v>
+        <v>0.1240429167326735</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02345861880856724</v>
+        <v>0.02157570205860576</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1763103052.115941</v>
+        <v>2153259286.257888</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1300722172119555</v>
+        <v>0.1273948933865008</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03763012472547203</v>
+        <v>0.03284456444035617</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3937758211.722898</v>
+        <v>4128336282.089875</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08856840328559411</v>
+        <v>0.09550950166519617</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02880220912978246</v>
+        <v>0.03198306946936284</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2140827721.426975</v>
+        <v>1845478640.511532</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1359396726217723</v>
+        <v>0.1733574670042845</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03062565735117065</v>
+        <v>0.02557870569018876</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3626697538.245174</v>
+        <v>4384671791.463166</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1328973194984554</v>
+        <v>0.1240703693300621</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03452062728525516</v>
+        <v>0.03830494945115946</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1600563612.388389</v>
+        <v>1847802754.020844</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1684081391526623</v>
+        <v>0.1692902099991201</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02476416809638599</v>
+        <v>0.0326790547944148</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4955644919.66619</v>
+        <v>4589114042.949411</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07956597271145825</v>
+        <v>0.1053071371266431</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03580998308023644</v>
+        <v>0.02842177108060072</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4168487100.378064</v>
+        <v>4169456806.150441</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1177059936588789</v>
+        <v>0.08969312654223764</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02234273102205933</v>
+        <v>0.03023401145473369</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4031055950.486488</v>
+        <v>4573319600.514406</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1687271302478814</v>
+        <v>0.1545600221182838</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02923416346790758</v>
+        <v>0.02579379562870299</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2233929581.988172</v>
+        <v>2211289908.646692</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1471482930921938</v>
+        <v>0.1197325260214025</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03210236229759891</v>
+        <v>0.0362220724843021</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2534227976.067721</v>
+        <v>2030973978.829851</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1017457467540651</v>
+        <v>0.08871556850217115</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04221129376067671</v>
+        <v>0.04330498488419517</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3471825770.722443</v>
+        <v>2512908972.413888</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1220570583887812</v>
+        <v>0.1494943834121339</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04976752386840363</v>
+        <v>0.05271120385177385</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1946265357.73085</v>
+        <v>1734740431.224564</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1092713851790782</v>
+        <v>0.1113957516949811</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01731572208170685</v>
+        <v>0.01919359152634214</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1202081542.237554</v>
+        <v>1011463593.829933</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1190684555938156</v>
+        <v>0.1549023352747556</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04196618497816217</v>
+        <v>0.04069327853969068</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3340402930.945992</v>
+        <v>2727885319.347083</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1551586679978587</v>
+        <v>0.1174313814362825</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03043230143692147</v>
+        <v>0.03541072206935775</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3163924245.335964</v>
+        <v>2399272124.997311</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1015304002855375</v>
+        <v>0.1116974926837457</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03491495167523135</v>
+        <v>0.02685264527383988</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2015171029.281592</v>
+        <v>2038317443.133579</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1034217016367262</v>
+        <v>0.1304877692841811</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0546028683971374</v>
+        <v>0.03722255113035326</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1579328628.389699</v>
+        <v>1294249551.536573</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1431726557379264</v>
+        <v>0.1419924712716965</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05001602985238086</v>
+        <v>0.0445175734400548</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2320188889.329363</v>
+        <v>2059144648.421667</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08874322290376481</v>
+        <v>0.09509506814592317</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04042435885758862</v>
+        <v>0.03089932015250163</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3678922262.635496</v>
+        <v>4514959352.682412</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1078929026466158</v>
+        <v>0.1092761376046433</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05060637302203603</v>
+        <v>0.0472046186527274</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2044036906.543275</v>
+        <v>1997512346.597583</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1483779615495408</v>
+        <v>0.1415485101614141</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03497441084266945</v>
+        <v>0.03121366473427763</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2036025420.448588</v>
+        <v>2495359529.677724</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1061627578232617</v>
+        <v>0.09815034821663474</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03680082012530504</v>
+        <v>0.03642086178669846</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2051501840.095643</v>
+        <v>1716078270.80771</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1046955876441725</v>
+        <v>0.1143111282971839</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03996709865573003</v>
+        <v>0.0305338708250759</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4265100113.418972</v>
+        <v>4076163786.38422</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1108775970626625</v>
+        <v>0.1440669374934663</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02615004316954415</v>
+        <v>0.02053524548589056</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2459300756.364099</v>
+        <v>2673087894.860856</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1119789195062587</v>
+        <v>0.1142916056772376</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02492800132704702</v>
+        <v>0.02839850563734023</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2914442917.069751</v>
+        <v>2352131687.603097</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09287989417398503</v>
+        <v>0.1445834597177059</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03315792264595969</v>
+        <v>0.03521722240335737</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4430266900.099346</v>
+        <v>3761006935.061895</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1680514648318993</v>
+        <v>0.1227716290971449</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01985360219879214</v>
+        <v>0.02202844158907815</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3561594492.791306</v>
+        <v>2852555300.128341</v>
       </c>
       <c r="F101" t="n">
-        <v>0.174877882183075</v>
+        <v>0.1896413429298263</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05141188531417539</v>
+        <v>0.05676725791774124</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_216.xlsx
+++ b/output/fit_clients/fit_round_216.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1895691228.889958</v>
+        <v>1915296519.542551</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07652721661029012</v>
+        <v>0.08433366756054685</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04153512622613149</v>
+        <v>0.04477633548403131</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1804095239.10275</v>
+        <v>2137973451.2147</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1325996707417238</v>
+        <v>0.1801548435702062</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03397797049042599</v>
+        <v>0.04417653743477968</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4664627694.775711</v>
+        <v>4189326412.039601</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1380632097414</v>
+        <v>0.1287554762314634</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03656156803404653</v>
+        <v>0.02481571389189327</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>118</v>
+      </c>
+      <c r="J4" t="n">
+        <v>215</v>
+      </c>
+      <c r="K4" t="n">
+        <v>112.1659260534852</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3439154410.336553</v>
+        <v>4114209745.31163</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06880575632377317</v>
+        <v>0.0810623689197123</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04787537411726482</v>
+        <v>0.03678132670690784</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>216</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2360067635.870702</v>
+        <v>2104174912.24538</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1132659152076347</v>
+        <v>0.09352219249729841</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05214162249918714</v>
+        <v>0.04378388573358998</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3006361927.904922</v>
+        <v>3096076003.324877</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09739492269434688</v>
+        <v>0.09914070543260353</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03383552673427839</v>
+        <v>0.0327744502285157</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3249151146.985661</v>
+        <v>2833807163.497893</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1797193955417296</v>
+        <v>0.1870079971989002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0306264598783752</v>
+        <v>0.03201625049440081</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>61</v>
+      </c>
+      <c r="J8" t="n">
+        <v>214</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1669891347.013545</v>
+        <v>1441182300.743648</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1775524159973668</v>
+        <v>0.1493459379972117</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03305872332080147</v>
+        <v>0.02943560771789738</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5604936771.243336</v>
+        <v>4855612270.394945</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1403017255162899</v>
+        <v>0.1618960802639915</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03838252107161823</v>
+        <v>0.04728337437791454</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>197</v>
+      </c>
+      <c r="J10" t="n">
+        <v>216</v>
+      </c>
+      <c r="K10" t="n">
+        <v>122.2115308282916</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3155569993.808048</v>
+        <v>3896770116.12454</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1534817534851093</v>
+        <v>0.1803360091120375</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04380206018288806</v>
+        <v>0.04135100503774329</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>90</v>
+      </c>
+      <c r="J11" t="n">
+        <v>216</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2535923286.372184</v>
+        <v>2853800988.768681</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1232607495389718</v>
+        <v>0.1429666833185083</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03764230850912758</v>
+        <v>0.03509415722320593</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4692750295.696036</v>
+        <v>3881975007.086685</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09297537682824038</v>
+        <v>0.08509613861565349</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02835852653712458</v>
+        <v>0.02606943417122516</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>108</v>
+      </c>
+      <c r="J13" t="n">
+        <v>216</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3140439970.241041</v>
+        <v>3013939401.06151</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1171308502700629</v>
+        <v>0.1658777897763402</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04266190069176731</v>
+        <v>0.0317329584008844</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>42</v>
+      </c>
+      <c r="J14" t="n">
+        <v>212</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1723049395.864243</v>
+        <v>1345516653.69649</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09204236719620344</v>
+        <v>0.07244038100871057</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03977631246754392</v>
+        <v>0.0487308694295837</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2789398145.650187</v>
+        <v>2643484824.578876</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09592450579184614</v>
+        <v>0.08226899638444704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04027182669965326</v>
+        <v>0.04653540052329831</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1030,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3557745947.192261</v>
+        <v>3474018449.566649</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1432944988711164</v>
+        <v>0.1256649528327294</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04967756170819057</v>
+        <v>0.03674767606273777</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>104</v>
+      </c>
+      <c r="J17" t="n">
+        <v>215</v>
+      </c>
+      <c r="K17" t="n">
+        <v>93.30235731473135</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2910697151.133574</v>
+        <v>2620363928.948076</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1210427605658184</v>
+        <v>0.1757902607424033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02687465627770334</v>
+        <v>0.02372208381527349</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>56</v>
+      </c>
+      <c r="J18" t="n">
+        <v>215</v>
+      </c>
+      <c r="K18" t="n">
+        <v>57.20339197026387</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1352712769.781637</v>
+        <v>830103123.9771949</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1620975461060196</v>
+        <v>0.1918505789954478</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01855118473561667</v>
+        <v>0.01870445746555428</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2345620205.703125</v>
+        <v>2525712183.00764</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1559440133916015</v>
+        <v>0.1325380692321594</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01945619635848575</v>
+        <v>0.02297379484958026</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2061296283.567536</v>
+        <v>1838885227.580781</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06365958236939229</v>
+        <v>0.07643692757277744</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03137885738530186</v>
+        <v>0.03031049787679533</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3301244778.438582</v>
+        <v>3115100689.254596</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1243779653960279</v>
+        <v>0.09853964303856325</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04958015392641731</v>
+        <v>0.04490458141660335</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>213</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>957753842.6560909</v>
+        <v>1510732290.034344</v>
       </c>
       <c r="F23" t="n">
-        <v>0.124741558297518</v>
+        <v>0.1647073235937728</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04342028422457909</v>
+        <v>0.03318956621518701</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2730583045.29722</v>
+        <v>3976101080.53066</v>
       </c>
       <c r="F24" t="n">
-        <v>0.146071306843082</v>
+        <v>0.1257072272691804</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03695553291351839</v>
+        <v>0.02854479596197048</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>68</v>
+      </c>
+      <c r="J24" t="n">
+        <v>215</v>
+      </c>
+      <c r="K24" t="n">
+        <v>106.055996424664</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1219946042.302335</v>
+        <v>1456897726.097089</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09781253134636088</v>
+        <v>0.08241020701183381</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0215567021433446</v>
+        <v>0.02943695382759285</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1181001723.948598</v>
+        <v>1196310485.601501</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1232345586184231</v>
+        <v>0.1105612756641741</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02948789779666913</v>
+        <v>0.02769538008787989</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4576942371.988238</v>
+        <v>4670660988.979375</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1298479035854077</v>
+        <v>0.1361946489978259</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02633526600132607</v>
+        <v>0.02314201647617594</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>85</v>
+      </c>
+      <c r="J27" t="n">
+        <v>216</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3739229755.624848</v>
+        <v>3722320424.95032</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1396064604097372</v>
+        <v>0.1054148522011334</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03071290378814653</v>
+        <v>0.03227038144109686</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>216</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4314190408.425566</v>
+        <v>3898222118.060651</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1310511926713715</v>
+        <v>0.1364860626887655</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0352063837842806</v>
+        <v>0.04609799673424535</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>205</v>
+      </c>
+      <c r="J29" t="n">
+        <v>216</v>
+      </c>
+      <c r="K29" t="n">
+        <v>127.5173418929323</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2310536027.385057</v>
+        <v>1601392511.638306</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1164827238566553</v>
+        <v>0.105126499084875</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03380097414479789</v>
+        <v>0.0343616551170057</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1066357093.820069</v>
+        <v>1416702308.892726</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09925115905235536</v>
+        <v>0.09316999864982792</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04917318138088748</v>
+        <v>0.03544073571392838</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1227270563.420852</v>
+        <v>1519672797.230171</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0735244586830034</v>
+        <v>0.09551312065281101</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02741766727818577</v>
+        <v>0.03406433154832294</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2143811672.213827</v>
+        <v>2546082498.212267</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1504206772384922</v>
+        <v>0.1782732709333759</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04103687190962773</v>
+        <v>0.05147360585332462</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1133365097.868805</v>
+        <v>1072111669.459836</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08393300507784085</v>
+        <v>0.07784965297622796</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01982372045716841</v>
+        <v>0.01925935412891066</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1060067913.533753</v>
+        <v>1226252785.852765</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09822322018128563</v>
+        <v>0.109861514889846</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03872432750123089</v>
+        <v>0.04189004563583215</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3190967827.113163</v>
+        <v>2905890009.628905</v>
       </c>
       <c r="F36" t="n">
-        <v>0.134121070243472</v>
+        <v>0.1792463403558806</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02019961633650254</v>
+        <v>0.01916712126331057</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2722660276.048611</v>
+        <v>2094210111.698131</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0926913961854029</v>
+        <v>0.06914327906978643</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03353210299529707</v>
+        <v>0.03894596518283475</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1386893413.866487</v>
+        <v>1901579466.761425</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1116924085474472</v>
+        <v>0.09532408946648065</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03387256127778347</v>
+        <v>0.0391498807664687</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2135750724.05074</v>
+        <v>1633659717.563827</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1220494984766375</v>
+        <v>0.1422504581884307</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02425903861581853</v>
+        <v>0.02621839919559609</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1135848180.697454</v>
+        <v>1666302982.314252</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1225751292401976</v>
+        <v>0.1329900792475077</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05286177007295954</v>
+        <v>0.04481642274819189</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2105256656.022146</v>
+        <v>2463048837.293639</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1123426155818873</v>
+        <v>0.1595647699080475</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0350816957127243</v>
+        <v>0.0328034492296972</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4199767007.215699</v>
+        <v>4034206058.3813</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08735772977604454</v>
+        <v>0.1072767705034638</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0454673770108251</v>
+        <v>0.04517030616449486</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>85</v>
+      </c>
+      <c r="J42" t="n">
+        <v>216</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2407060308.311469</v>
+        <v>2555558884.93242</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1374082956701339</v>
+        <v>0.1650816148720916</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02594039683688208</v>
+        <v>0.02309265232619753</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1712492161.61049</v>
+        <v>1927338272.025932</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07147538171469098</v>
+        <v>0.09450656728592914</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02389999304646345</v>
+        <v>0.02372935052955525</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2509715363.078233</v>
+        <v>1776835401.515756</v>
       </c>
       <c r="F45" t="n">
-        <v>0.153296109744104</v>
+        <v>0.1371281963669648</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0420376159514351</v>
+        <v>0.05216892773196512</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5417312109.675073</v>
+        <v>4844394513.616992</v>
       </c>
       <c r="F46" t="n">
-        <v>0.131733644493008</v>
+        <v>0.1304695150918855</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05400923596205406</v>
+        <v>0.04875414509619391</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>123</v>
+      </c>
+      <c r="J46" t="n">
+        <v>216</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3278308976.390836</v>
+        <v>3709836543.624317</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1807024211955598</v>
+        <v>0.1635324565095991</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05732839443441465</v>
+        <v>0.04181212709570611</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>97</v>
+      </c>
+      <c r="J47" t="n">
+        <v>215</v>
+      </c>
+      <c r="K47" t="n">
+        <v>92.70418691298492</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3870139793.48968</v>
+        <v>3213443368.824903</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07514501473524356</v>
+        <v>0.07349587076881813</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03506271506692882</v>
+        <v>0.03192811930920032</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>107</v>
+      </c>
+      <c r="J48" t="n">
+        <v>215</v>
+      </c>
+      <c r="K48" t="n">
+        <v>88.95218010790032</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1563275783.609924</v>
+        <v>1505357738.334035</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1242312159227719</v>
+        <v>0.1717425514438131</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03747363796254814</v>
+        <v>0.04120812329207232</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3555178967.606349</v>
+        <v>2825335946.662323</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1453483878017542</v>
+        <v>0.121277786912899</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03802870628039403</v>
+        <v>0.04253975411978975</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>69</v>
+      </c>
+      <c r="J50" t="n">
+        <v>215</v>
+      </c>
+      <c r="K50" t="n">
+        <v>67.11987377801321</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1528082490.226482</v>
+        <v>1174400357.147512</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1825718709508736</v>
+        <v>0.1334440097871322</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04225772581249673</v>
+        <v>0.04633671218245631</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2269,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4138771660.094058</v>
+        <v>3547318197.496911</v>
       </c>
       <c r="F52" t="n">
-        <v>0.103429513632847</v>
+        <v>0.1123593995324051</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05400242268772228</v>
+        <v>0.06185313272879744</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>146</v>
+      </c>
+      <c r="J52" t="n">
+        <v>215</v>
+      </c>
+      <c r="K52" t="n">
+        <v>103.3091872974231</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2693329078.396537</v>
+        <v>2638937602.002347</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1751995550922298</v>
+        <v>0.134784248380334</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02553450114554875</v>
+        <v>0.02853708705913238</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>205</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2341,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3238951720.213208</v>
+        <v>4666642164.348791</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1239572097914825</v>
+        <v>0.1395309309599138</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04477202986444691</v>
+        <v>0.05035062547863197</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>114</v>
+      </c>
+      <c r="J54" t="n">
+        <v>216</v>
+      </c>
+      <c r="K54" t="n">
+        <v>115.6500221144548</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2372,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4737593460.693437</v>
+        <v>4546376359.181585</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2159215028127513</v>
+        <v>0.1494990466530191</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02053733132079103</v>
+        <v>0.02981546743044279</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>97</v>
+      </c>
+      <c r="J55" t="n">
+        <v>215</v>
+      </c>
+      <c r="K55" t="n">
+        <v>112.5094660481438</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1865911363.083357</v>
+        <v>1138702397.165176</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1352575403489008</v>
+        <v>0.1630759242136031</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04828578146217222</v>
+        <v>0.03900479488733854</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2444,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4056569964.928569</v>
+        <v>3720553468.199735</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1539448518672956</v>
+        <v>0.1790037898416336</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01833654041957882</v>
+        <v>0.01838201792766822</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>84</v>
+      </c>
+      <c r="J57" t="n">
+        <v>216</v>
+      </c>
+      <c r="K57" t="n">
+        <v>114.7460003455212</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1382972636.453739</v>
+        <v>1747866395.172834</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1697555693838061</v>
+        <v>0.1303475405170583</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02612164427117389</v>
+        <v>0.03530032246311894</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2516,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4193249147.149898</v>
+        <v>4483990684.312932</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1106251213224253</v>
+        <v>0.1221223266340954</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04625315114890058</v>
+        <v>0.04270042703103609</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>104</v>
+      </c>
+      <c r="J59" t="n">
+        <v>216</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2591422714.79639</v>
+        <v>3156710643.373615</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1435598721328888</v>
+        <v>0.1324194512974548</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02926455160213372</v>
+        <v>0.03241763601015635</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>30</v>
+      </c>
+      <c r="J60" t="n">
+        <v>210</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2453166256.668028</v>
+        <v>2835370615.702209</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1745187345283828</v>
+        <v>0.1622521372748247</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02154435056271077</v>
+        <v>0.02366467520874308</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1967951429.500978</v>
+        <v>1389503440.781181</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1814309324898571</v>
+        <v>0.1544987569166094</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04598060070649006</v>
+        <v>0.04686720527216851</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3514543363.376609</v>
+        <v>5094550499.235928</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07798795972329849</v>
+        <v>0.07444775137280249</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03773995989086412</v>
+        <v>0.03599794136659627</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>105</v>
+      </c>
+      <c r="J63" t="n">
+        <v>216</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3641986681.969648</v>
+        <v>5468153796.956005</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1697643054153494</v>
+        <v>0.1253621194696175</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02904078741461638</v>
+        <v>0.02942843437272483</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>106</v>
+      </c>
+      <c r="J64" t="n">
+        <v>216</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5307656668.511097</v>
+        <v>5483450897.672015</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1221079015577912</v>
+        <v>0.1431300678371105</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02885822104216614</v>
+        <v>0.02492054905978387</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>172</v>
+      </c>
+      <c r="J65" t="n">
+        <v>216</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5649103632.614021</v>
+        <v>4854894650.703017</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1426659524897932</v>
+        <v>0.131527634235741</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03829752963168662</v>
+        <v>0.04509529180766091</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>106</v>
+      </c>
+      <c r="J66" t="n">
+        <v>216</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2876281827.152304</v>
+        <v>3436145203.5602</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09116398597916295</v>
+        <v>0.07284183727112986</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03860709348257317</v>
+        <v>0.03995200775810976</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3743479297.439136</v>
+        <v>5147962849.732492</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1021238787699947</v>
+        <v>0.1170083488121532</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04202058279551116</v>
+        <v>0.03862348278598108</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>109</v>
+      </c>
+      <c r="J68" t="n">
+        <v>215</v>
+      </c>
+      <c r="K68" t="n">
+        <v>113.0344782777879</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1617902466.977615</v>
+        <v>1913686220.42414</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1685948424179181</v>
+        <v>0.1645558394490924</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05159527536308455</v>
+        <v>0.04626828213454185</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3291064952.277444</v>
+        <v>3506596169.833848</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06402243263985298</v>
+        <v>0.09882524836771392</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04052263699319943</v>
+        <v>0.04087440058758463</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3907221018.713739</v>
+        <v>3609422201.412891</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1165269973808136</v>
+        <v>0.1235836656869478</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02891254969750457</v>
+        <v>0.02168443044412946</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>165</v>
+      </c>
+      <c r="J71" t="n">
+        <v>215</v>
+      </c>
+      <c r="K71" t="n">
+        <v>109.7759883911055</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1714937973.602272</v>
+        <v>1791478374.811421</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07613033003453974</v>
+        <v>0.07058635515888019</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0494740761239508</v>
+        <v>0.03823213035060573</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3169231816.511411</v>
+        <v>2198520003.807138</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09982985059070987</v>
+        <v>0.1061235606344332</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0464981478950689</v>
+        <v>0.04355784594777676</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2644972904.85825</v>
+        <v>3464893115.624519</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1240429167326735</v>
+        <v>0.1611005953890305</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02157570205860576</v>
+        <v>0.03059526867651304</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>62</v>
+      </c>
+      <c r="J74" t="n">
+        <v>208</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2153259286.257888</v>
+        <v>2351362242.753032</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1273948933865008</v>
+        <v>0.1309063242468786</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03284456444035617</v>
+        <v>0.02588036930568965</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4128336282.089875</v>
+        <v>4924104288.428443</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09550950166519617</v>
+        <v>0.08215841042703263</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03198306946936284</v>
+        <v>0.02325239930048242</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>99</v>
+      </c>
+      <c r="J76" t="n">
+        <v>216</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1845478640.511532</v>
+        <v>1421224270.531801</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1733574670042845</v>
+        <v>0.1765445563048807</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02557870569018876</v>
+        <v>0.02809299856557709</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4384671791.463166</v>
+        <v>3475508202.279222</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1240703693300621</v>
+        <v>0.1085826454694606</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03830494945115946</v>
+        <v>0.04436021505173094</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>108</v>
+      </c>
+      <c r="J78" t="n">
+        <v>215</v>
+      </c>
+      <c r="K78" t="n">
+        <v>101.2004217072631</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1847802754.020844</v>
+        <v>1907649721.324989</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1692902099991201</v>
+        <v>0.1090947379228841</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0326790547944148</v>
+        <v>0.02670755119636737</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4589114042.949411</v>
+        <v>3451006292.960553</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1053071371266431</v>
+        <v>0.1031311459246598</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02842177108060072</v>
+        <v>0.03749259103479835</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>105</v>
+      </c>
+      <c r="J80" t="n">
+        <v>215</v>
+      </c>
+      <c r="K80" t="n">
+        <v>73.0054662248223</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4169456806.150441</v>
+        <v>3691913116.687222</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08969312654223764</v>
+        <v>0.1262864509375838</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03023401145473369</v>
+        <v>0.0236414668412369</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>99</v>
+      </c>
+      <c r="J81" t="n">
+        <v>216</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4573319600.514406</v>
+        <v>5462294382.21483</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1545600221182838</v>
+        <v>0.1394723146907358</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02579379562870299</v>
+        <v>0.02956010117685397</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>160</v>
+      </c>
+      <c r="J82" t="n">
+        <v>216</v>
+      </c>
+      <c r="K82" t="n">
+        <v>122.3037047889466</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2211289908.646692</v>
+        <v>1888047296.356927</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1197325260214025</v>
+        <v>0.1480581006106998</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0362220724843021</v>
+        <v>0.03290284386055054</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2030973978.829851</v>
+        <v>1656617242.417197</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08871556850217115</v>
+        <v>0.07954643274889686</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04330498488419517</v>
+        <v>0.04476032623253842</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2512908972.413888</v>
+        <v>2644863534.334483</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1494943834121339</v>
+        <v>0.1262749342174261</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05271120385177385</v>
+        <v>0.03479458422444249</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1734740431.224564</v>
+        <v>2220590421.179476</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1113957516949811</v>
+        <v>0.1699462758738031</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01919359152634214</v>
+        <v>0.0235619037515049</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1011463593.829933</v>
+        <v>1040583875.299973</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1549023352747556</v>
+        <v>0.1602462641056503</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04069327853969068</v>
+        <v>0.03497383881349334</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2727885319.347083</v>
+        <v>3388911742.22905</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1174313814362825</v>
+        <v>0.1663861967312071</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03541072206935775</v>
+        <v>0.0327142699635487</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>214</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2399272124.997311</v>
+        <v>3242726936.730749</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1116974926837457</v>
+        <v>0.1119064559646202</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02685264527383988</v>
+        <v>0.0401159404810887</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>15</v>
+      </c>
+      <c r="J89" t="n">
+        <v>214</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2038317443.133579</v>
+        <v>1345647129.355876</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1304877692841811</v>
+        <v>0.0918904724115041</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03722255113035326</v>
+        <v>0.035049691768421</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1294249551.536573</v>
+        <v>2042589854.696543</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1419924712716965</v>
+        <v>0.1552293361460095</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0445175734400548</v>
+        <v>0.04715146092250172</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2059144648.421667</v>
+        <v>2028902071.347647</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09509506814592317</v>
+        <v>0.09743381927643328</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03089932015250163</v>
+        <v>0.03413970261239099</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4514959352.682412</v>
+        <v>3290314114.284677</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1092761376046433</v>
+        <v>0.08740609623642678</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0472046186527274</v>
+        <v>0.03931747035081332</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>97</v>
+      </c>
+      <c r="J93" t="n">
+        <v>215</v>
+      </c>
+      <c r="K93" t="n">
+        <v>86.12165841335225</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1997512346.597583</v>
+        <v>2463055168.760359</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1415485101614141</v>
+        <v>0.1156696959391663</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03121366473427763</v>
+        <v>0.02665121298468402</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2495359529.677724</v>
+        <v>3264880253.152339</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09815034821663474</v>
+        <v>0.09451450589739549</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03642086178669846</v>
+        <v>0.05164260244489065</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1716078270.80771</v>
+        <v>2288178246.971259</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1143111282971839</v>
+        <v>0.1156567254353043</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0305338708250759</v>
+        <v>0.03987523856012214</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4076163786.38422</v>
+        <v>3577590845.385256</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1440669374934663</v>
+        <v>0.1274736156791992</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02053524548589056</v>
+        <v>0.02593954187167205</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>104</v>
+      </c>
+      <c r="J97" t="n">
+        <v>216</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2673087894.860856</v>
+        <v>3025883051.09629</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1142916056772376</v>
+        <v>0.09301031105389525</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02839850563734023</v>
+        <v>0.02763162108634155</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2352131687.603097</v>
+        <v>3157667813.138291</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1445834597177059</v>
+        <v>0.1370285055245145</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03521722240335737</v>
+        <v>0.02232486429546082</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3761006935.061895</v>
+        <v>4132214887.120874</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1227716290971449</v>
+        <v>0.1719147731778899</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02202844158907815</v>
+        <v>0.02557223858238214</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>90</v>
+      </c>
+      <c r="J100" t="n">
+        <v>215</v>
+      </c>
+      <c r="K100" t="n">
+        <v>110.8924533194723</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2852555300.128341</v>
+        <v>3463826310.052014</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1896413429298263</v>
+        <v>0.214966010721307</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05676725791774124</v>
+        <v>0.0480870947955617</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
